--- a/Config/UserDefinedTaxonNames.xlsx
+++ b/Config/UserDefinedTaxonNames.xlsx
@@ -24,28 +24,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
-    <t xml:space="preserve">Taxon_names_orig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New_taxon_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New_taxon_name_author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phylum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kingdom</t>
+    <t xml:space="preserve">Taxon_orig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New_Taxon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New_scientificName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phylum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kingdom</t>
   </si>
   <si>
     <t xml:space="preserve">Nesoenas picturata</t>
@@ -164,13 +164,15 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -233,6 +235,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
@@ -256,6 +261,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
